--- a/Data/ECG/result.xlsx
+++ b/Data/ECG/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>e1</t>
   </si>
@@ -39,13 +39,35 @@
     <t>0.05*m</t>
   </si>
   <si>
-    <t>10872 - 10969</t>
-  </si>
-  <si>
-    <t>10867 - 11010</t>
-  </si>
-  <si>
-    <t>number</t>
+    <t>time (mili seconds)</t>
+  </si>
+  <si>
+    <t>10872 - 10969, length: 98
+19417 - 20221, length: 805</t>
+  </si>
+  <si>
+    <t>10867 - 11010, length: 144
+19419 - 20350, length: 932
+21360 - 21599, length: 240</t>
+  </si>
+  <si>
+    <t>9963 - 10381, length: 419
+10878 - 11160, length: 283
+19037 - 20584, length: 1548</t>
+  </si>
+  <si>
+    <t>9955 - 10226, length: 272
+10877 - 11049, length: 173
+18684 - 20544, length: 1861
+21285 - 21599, length: 315</t>
+  </si>
+  <si>
+    <t>0 - 256, length: 257
+4003 - 4591, length: 589
+10030 - 10245, length: 216
+10867 - 11010, length: 144
+19024 - 20350, length: 1327
+21360 - 21599, length: 240</t>
   </si>
 </sst>
 </file>
@@ -81,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +424,7 @@
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -421,33 +447,33 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.5</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>31822</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.5</v>
       </c>
@@ -461,13 +487,82 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>25695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1.21</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>19271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1.6</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>24414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.5</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>25572</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Data/ECG/result.xlsx
+++ b/Data/ECG/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>e1</t>
   </si>
@@ -68,6 +68,12 @@
 10867 - 11010, length: 144
 19024 - 20350, length: 1327
 21360 - 21599, length: 240</t>
+  </si>
+  <si>
+    <t>Hot sax</t>
+  </si>
+  <si>
+    <t>10867 (length 150) /8</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +569,16 @@
       </c>
       <c r="G7">
         <v>25572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
